--- a/documentation/softdev/PBL Documents/Capstone Reimbursement.xlsx
+++ b/documentation/softdev/PBL Documents/Capstone Reimbursement.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV\documentation\softdev\PBL Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="14352" windowHeight="5196" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Capstone" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Advising" sheetId="3" r:id="rId3"/>
     <sheet name="Proofread" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Capstone Reimbursement</t>
   </si>
@@ -86,6 +91,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Food For the Panelist and Adviser (2 pax)</t>
+  </si>
+  <si>
+    <t>Refreshments for the Panelist and Adviser</t>
+  </si>
+  <si>
+    <t>April 10, 2015</t>
   </si>
 </sst>
 </file>
@@ -434,6 +448,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -481,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +533,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,19 +742,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U365"/>
+  <dimension ref="B1:U363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
-    <col min="3" max="3" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -824,10 +841,16 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="29">
+        <v>110</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="7"/>
@@ -846,10 +869,16 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="29">
+        <v>24</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="7"/>
@@ -868,7 +897,7 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="28"/>
@@ -890,7 +919,7 @@
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="28"/>
@@ -912,7 +941,7 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="28"/>
@@ -934,7 +963,7 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="28"/>
@@ -1000,7 +1029,7 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="28"/>
@@ -1022,7 +1051,7 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="28"/>
@@ -1044,7 +1073,7 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="28"/>
@@ -1088,12 +1117,17 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="53">
+        <f>SUM(D5:D16)</f>
+        <v>134</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1109,13 +1143,13 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+    <row r="18" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1131,18 +1165,13 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="53">
-        <f>SUM(D6:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="40"/>
+    <row r="19" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1158,13 +1187,13 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="41"/>
+    <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1269,13 +1298,13 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1291,13 +1320,13 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1335,7 +1364,7 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -1357,7 +1386,7 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
@@ -1422,7 +1451,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1444,7 +1473,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -1466,7 +1495,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -1488,7 +1517,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -1510,7 +1539,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -1532,7 +1561,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -1554,7 +1583,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -1576,7 +1605,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -1598,7 +1627,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -1620,7 +1649,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -1642,7 +1671,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -1664,7 +1693,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -1686,7 +1715,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -1708,7 +1737,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -1730,7 +1759,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -1752,7 +1781,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -1774,7 +1803,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -1796,7 +1825,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -1818,7 +1847,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -1840,7 +1869,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -1862,7 +1891,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -1884,7 +1913,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -1906,7 +1935,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -1928,7 +1957,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -1950,7 +1979,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -1972,7 +2001,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -1994,7 +2023,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -2016,7 +2045,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -2038,7 +2067,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -2060,7 +2089,7 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -2082,7 +2111,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -2104,7 +2133,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -2126,7 +2155,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -2148,7 +2177,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -2170,7 +2199,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -2192,7 +2221,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -2214,7 +2243,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -2236,7 +2265,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -2258,7 +2287,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -2280,7 +2309,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -2302,7 +2331,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -2324,7 +2353,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -2346,7 +2375,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -2368,7 +2397,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -2390,7 +2419,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -2412,7 +2441,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -2434,7 +2463,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -2456,7 +2485,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -2478,7 +2507,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -2500,7 +2529,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
@@ -2522,7 +2551,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -2544,7 +2573,7 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -2566,7 +2595,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -2588,7 +2617,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -2610,7 +2639,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -2632,7 +2661,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -2654,7 +2683,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -2676,7 +2705,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -2698,7 +2727,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -2720,7 +2749,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -2742,7 +2771,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -2764,7 +2793,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -2786,7 +2815,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
@@ -2808,7 +2837,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -2830,7 +2859,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -2852,7 +2881,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -2874,7 +2903,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -2896,7 +2925,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -2918,7 +2947,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
@@ -2940,7 +2969,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
@@ -2962,7 +2991,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -2984,7 +3013,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -3006,7 +3035,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -3028,7 +3057,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
@@ -3050,7 +3079,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -3072,7 +3101,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -3094,7 +3123,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -3116,7 +3145,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -3138,7 +3167,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -3160,7 +3189,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -3182,7 +3211,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -3204,7 +3233,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -3226,7 +3255,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -3248,7 +3277,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
@@ -3270,7 +3299,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -3292,7 +3321,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -3314,7 +3343,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -3336,7 +3365,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -3358,7 +3387,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
@@ -3380,7 +3409,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -3402,7 +3431,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
@@ -3424,7 +3453,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
@@ -3446,7 +3475,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
@@ -3468,7 +3497,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -3490,7 +3519,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -3512,7 +3541,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -3534,7 +3563,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -3556,7 +3585,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -3578,7 +3607,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
@@ -3600,7 +3629,7 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
@@ -3622,7 +3651,7 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
@@ -3644,7 +3673,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
@@ -3666,7 +3695,7 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
@@ -3688,7 +3717,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -3710,7 +3739,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -3732,7 +3761,7 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -3754,7 +3783,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -3776,7 +3805,7 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -3798,7 +3827,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -3820,7 +3849,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -3842,7 +3871,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -3864,7 +3893,7 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -3886,7 +3915,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -3908,7 +3937,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -3930,7 +3959,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -3952,7 +3981,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -3974,7 +4003,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -3996,7 +4025,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -4018,7 +4047,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -4040,7 +4069,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
@@ -4062,7 +4091,7 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
@@ -4084,7 +4113,7 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
@@ -4106,7 +4135,7 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
@@ -4128,7 +4157,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
@@ -4150,7 +4179,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
@@ -4172,7 +4201,7 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
@@ -4194,7 +4223,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
@@ -4216,7 +4245,7 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
@@ -4238,7 +4267,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
@@ -4260,7 +4289,7 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
@@ -4282,7 +4311,7 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
@@ -4304,7 +4333,7 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
@@ -4326,7 +4355,7 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
@@ -4348,7 +4377,7 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
@@ -4370,7 +4399,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
@@ -4392,7 +4421,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
@@ -4414,7 +4443,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
@@ -4436,7 +4465,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
@@ -4458,7 +4487,7 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
@@ -4480,7 +4509,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
@@ -4502,7 +4531,7 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
@@ -4524,7 +4553,7 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
@@ -4546,7 +4575,7 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
@@ -4568,7 +4597,7 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
@@ -4590,7 +4619,7 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
@@ -4612,7 +4641,7 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
@@ -4634,7 +4663,7 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
@@ -4656,7 +4685,7 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
@@ -4678,7 +4707,7 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
@@ -4700,7 +4729,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
@@ -4722,7 +4751,7 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
@@ -4744,7 +4773,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
@@ -4766,7 +4795,7 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
@@ -4788,7 +4817,7 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
@@ -4810,7 +4839,7 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
@@ -4832,7 +4861,7 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
@@ -4854,7 +4883,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
@@ -4876,7 +4905,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
@@ -4898,7 +4927,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
@@ -4920,7 +4949,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
@@ -4942,7 +4971,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
@@ -4964,7 +4993,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
@@ -4986,7 +5015,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
@@ -5008,7 +5037,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
@@ -5030,7 +5059,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
@@ -5052,7 +5081,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
@@ -5074,7 +5103,7 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
@@ -5096,7 +5125,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
@@ -5118,7 +5147,7 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
@@ -5140,7 +5169,7 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
@@ -5162,7 +5191,7 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
@@ -5184,7 +5213,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
@@ -5206,7 +5235,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="5"/>
@@ -5228,7 +5257,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="5"/>
@@ -5250,7 +5279,7 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="5"/>
@@ -5272,7 +5301,7 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
@@ -5294,7 +5323,7 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="5"/>
@@ -5316,7 +5345,7 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
@@ -5338,7 +5367,7 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="5"/>
@@ -5360,7 +5389,7 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="5"/>
@@ -5382,7 +5411,7 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
@@ -5404,7 +5433,7 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
@@ -5426,7 +5455,7 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
@@ -5448,7 +5477,7 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
@@ -5470,7 +5499,7 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="5"/>
@@ -5492,7 +5521,7 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="5"/>
@@ -5514,7 +5543,7 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="5"/>
@@ -5536,7 +5565,7 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="5"/>
@@ -5558,7 +5587,7 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="5"/>
@@ -5580,7 +5609,7 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="5"/>
@@ -5602,7 +5631,7 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="5"/>
@@ -5624,7 +5653,7 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="5"/>
@@ -5646,7 +5675,7 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="5"/>
@@ -5668,7 +5697,7 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="5"/>
@@ -5690,7 +5719,7 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="5"/>
@@ -5712,7 +5741,7 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="5"/>
@@ -5734,7 +5763,7 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="5"/>
@@ -5756,7 +5785,7 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="5"/>
@@ -5778,7 +5807,7 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="5"/>
@@ -5800,7 +5829,7 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="5"/>
@@ -5822,7 +5851,7 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="5"/>
@@ -5844,7 +5873,7 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="5"/>
@@ -5866,7 +5895,7 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="5"/>
@@ -5888,7 +5917,7 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="5"/>
@@ -5910,7 +5939,7 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="5"/>
@@ -5932,7 +5961,7 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="5"/>
@@ -5954,7 +5983,7 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="5"/>
@@ -5976,7 +6005,7 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="5"/>
@@ -5998,7 +6027,7 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="5"/>
@@ -6020,7 +6049,7 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="5"/>
@@ -6042,7 +6071,7 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="5"/>
@@ -6064,7 +6093,7 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5"/>
@@ -6086,7 +6115,7 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5"/>
@@ -6108,7 +6137,7 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="5"/>
@@ -6130,7 +6159,7 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="5"/>
@@ -6152,7 +6181,7 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="5"/>
@@ -6174,7 +6203,7 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="5"/>
@@ -6196,7 +6225,7 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="5"/>
@@ -6218,7 +6247,7 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="5"/>
@@ -6240,7 +6269,7 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="5"/>
@@ -6262,7 +6291,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="5"/>
@@ -6284,7 +6313,7 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="5"/>
@@ -6306,7 +6335,7 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="5"/>
@@ -6328,7 +6357,7 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="5"/>
@@ -6350,7 +6379,7 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="5"/>
@@ -6372,7 +6401,7 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="5"/>
@@ -6394,7 +6423,7 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="5"/>
@@ -6416,7 +6445,7 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="5"/>
@@ -6438,7 +6467,7 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="5"/>
@@ -6460,7 +6489,7 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="5"/>
@@ -6482,7 +6511,7 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="5"/>
@@ -6504,7 +6533,7 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="5"/>
@@ -6526,7 +6555,7 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="5"/>
@@ -6548,7 +6577,7 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="5"/>
@@ -6570,7 +6599,7 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="5"/>
@@ -6592,7 +6621,7 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="5"/>
@@ -6614,7 +6643,7 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="5"/>
@@ -6636,7 +6665,7 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="5"/>
@@ -6658,7 +6687,7 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="5"/>
@@ -6680,7 +6709,7 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="5"/>
@@ -6702,7 +6731,7 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="5"/>
@@ -6724,7 +6753,7 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="5"/>
@@ -6746,7 +6775,7 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="5"/>
@@ -6768,7 +6797,7 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="5"/>
@@ -6790,7 +6819,7 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="5"/>
@@ -6812,7 +6841,7 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="5"/>
@@ -6834,7 +6863,7 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="5"/>
@@ -6856,7 +6885,7 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="5"/>
@@ -6878,7 +6907,7 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="5"/>
@@ -6900,7 +6929,7 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="5"/>
@@ -6922,7 +6951,7 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="5"/>
@@ -6944,7 +6973,7 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="5"/>
@@ -6966,7 +6995,7 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="5"/>
@@ -6988,7 +7017,7 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="5"/>
@@ -7010,7 +7039,7 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="5"/>
@@ -7032,7 +7061,7 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="5"/>
@@ -7054,7 +7083,7 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="5"/>
@@ -7076,7 +7105,7 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="5"/>
@@ -7098,7 +7127,7 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="5"/>
@@ -7120,7 +7149,7 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="5"/>
@@ -7142,7 +7171,7 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
@@ -7164,7 +7193,7 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="5"/>
@@ -7186,7 +7215,7 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="5"/>
@@ -7208,7 +7237,7 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="5"/>
@@ -7230,7 +7259,7 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="5"/>
@@ -7252,7 +7281,7 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="5"/>
@@ -7274,7 +7303,7 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="5"/>
@@ -7296,7 +7325,7 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="5"/>
@@ -7318,7 +7347,7 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="5"/>
@@ -7340,7 +7369,7 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="5"/>
@@ -7362,7 +7391,7 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="5"/>
@@ -7384,7 +7413,7 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="5"/>
@@ -7406,7 +7435,7 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="5"/>
@@ -7428,7 +7457,7 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="5"/>
@@ -7450,7 +7479,7 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="5"/>
@@ -7472,7 +7501,7 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="5"/>
@@ -7494,7 +7523,7 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="5"/>
@@ -7516,7 +7545,7 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="5"/>
@@ -7538,7 +7567,7 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="5"/>
@@ -7560,7 +7589,7 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="5"/>
@@ -7582,7 +7611,7 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="5"/>
@@ -7604,7 +7633,7 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="5"/>
@@ -7626,7 +7655,7 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="5"/>
@@ -7648,7 +7677,7 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="5"/>
@@ -7670,7 +7699,7 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="5"/>
@@ -7692,7 +7721,7 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="5"/>
@@ -7714,7 +7743,7 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="5"/>
@@ -7736,7 +7765,7 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="5"/>
@@ -7758,7 +7787,7 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="5"/>
@@ -7780,7 +7809,7 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="5"/>
@@ -7802,7 +7831,7 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="5"/>
@@ -7824,7 +7853,7 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="5"/>
@@ -7846,7 +7875,7 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="5"/>
@@ -7868,7 +7897,7 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="5"/>
@@ -7890,7 +7919,7 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="5"/>
@@ -7912,7 +7941,7 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="5"/>
@@ -7934,7 +7963,7 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="5"/>
@@ -7956,7 +7985,7 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="5"/>
@@ -7978,7 +8007,7 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="5"/>
@@ -8000,7 +8029,7 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="5"/>
@@ -8022,7 +8051,7 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="5"/>
@@ -8044,7 +8073,7 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="5"/>
@@ -8066,7 +8095,7 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="5"/>
@@ -8088,7 +8117,7 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="5"/>
@@ -8110,7 +8139,7 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="5"/>
@@ -8132,7 +8161,7 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="5"/>
@@ -8154,7 +8183,7 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="5"/>
@@ -8176,7 +8205,7 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="5"/>
@@ -8198,7 +8227,7 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="5"/>
@@ -8220,7 +8249,7 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="5"/>
@@ -8242,7 +8271,7 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="5"/>
@@ -8264,7 +8293,7 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="5"/>
@@ -8286,7 +8315,7 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="5"/>
@@ -8308,7 +8337,7 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="5"/>
@@ -8330,7 +8359,7 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="5"/>
@@ -8352,7 +8381,7 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="5"/>
@@ -8374,7 +8403,7 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="5"/>
@@ -8396,7 +8425,7 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="5"/>
@@ -8418,7 +8447,7 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="5"/>
@@ -8440,7 +8469,7 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="5"/>
@@ -8462,7 +8491,7 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="5"/>
@@ -8484,7 +8513,7 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="5"/>
@@ -8506,7 +8535,7 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="5"/>
@@ -8528,7 +8557,7 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="5"/>
@@ -8550,7 +8579,7 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="5"/>
@@ -8572,7 +8601,7 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="5"/>
@@ -8594,7 +8623,7 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="5"/>
@@ -8616,7 +8645,7 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="5"/>
@@ -8638,7 +8667,7 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="5"/>
@@ -8660,7 +8689,7 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="5"/>
@@ -8682,7 +8711,7 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="5"/>
@@ -8704,7 +8733,7 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="5"/>
@@ -8726,50 +8755,6 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="4"/>
-      <c r="G364" s="4"/>
-      <c r="H364" s="4"/>
-      <c r="I364" s="4"/>
-      <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
-      <c r="M364" s="4"/>
-      <c r="N364" s="4"/>
-      <c r="O364" s="4"/>
-      <c r="P364" s="4"/>
-      <c r="Q364" s="4"/>
-      <c r="R364" s="4"/>
-      <c r="S364" s="4"/>
-      <c r="T364" s="4"/>
-      <c r="U364" s="4"/>
-    </row>
-    <row r="365" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
-      <c r="G365" s="4"/>
-      <c r="H365" s="4"/>
-      <c r="I365" s="4"/>
-      <c r="J365" s="4"/>
-      <c r="K365" s="4"/>
-      <c r="L365" s="4"/>
-      <c r="M365" s="4"/>
-      <c r="N365" s="4"/>
-      <c r="O365" s="4"/>
-      <c r="P365" s="4"/>
-      <c r="Q365" s="4"/>
-      <c r="R365" s="4"/>
-      <c r="S365" s="4"/>
-      <c r="T365" s="4"/>
-      <c r="U365" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8784,18 +8769,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="57.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
@@ -8805,7 +8790,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="64" t="s">
         <v>15</v>
@@ -8837,7 +8822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8845,7 +8830,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8853,7 +8838,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -8861,7 +8846,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8869,7 +8854,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8877,7 +8862,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -8885,7 +8870,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -8893,7 +8878,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -8901,7 +8886,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -8909,7 +8894,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -8917,7 +8902,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -8925,7 +8910,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -8933,7 +8918,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -8941,7 +8926,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -8949,7 +8934,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -8957,7 +8942,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -8965,7 +8950,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -8973,7 +8958,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -8981,7 +8966,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -8989,7 +8974,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -8997,7 +8982,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -9005,7 +8990,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -9013,7 +8998,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -9021,7 +9006,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -9029,7 +9014,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -9037,7 +9022,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
       <c r="C30" s="56">
         <f>SUM(C5:C28)</f>
@@ -9053,7 +9038,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -9075,18 +9060,18 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="59.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
@@ -9104,7 +9089,7 @@
       <c r="F3" s="60"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="68" t="s">
         <v>19</v>
@@ -9231,22 +9216,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
